--- a/RUIDO_PARA_LA_CONCENTRACIÓN_(respuestas).xlsx
+++ b/RUIDO_PARA_LA_CONCENTRACIÓN_(respuestas).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PERSONAL_MAPU\UNIVERSIDADES\NACIONAL\DISEÑO_DE_EXPERIMENTOS\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PERSONAL_MAPU\UNIVERSIDADES\NACIONAL\DISEÑO_DE_EXPERIMENTOS\PROYECTO\Proyecto_DdE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9498C07-9AEA-4717-8434-ED980494ABF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA064DC2-C52A-4464-858A-64DC41B17D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>ccuervoba@unal.edu.co</t>
   </si>
   <si>
-    <t>lacastrot@unal.edu.co</t>
-  </si>
-  <si>
     <t>mmori@unal.edu.co</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>jzipagauta@unal.edu.co</t>
+  </si>
+  <si>
+    <t>echipatecua@unal.edu.co</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -229,6 +229,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,21 +285,6 @@
       </left>
       <right style="thin">
         <color rgb="FF5B3F86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5B3F86"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
       </right>
       <top style="thin">
         <color rgb="FF442F65"/>
@@ -333,21 +326,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
@@ -378,28 +356,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -408,28 +371,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -440,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -448,16 +396,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -466,46 +432,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,6 +495,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:L37">
+  <autoFilter ref="A1:L37" xr:uid="{84F86273-BDC1-43C7-9321-E48C3ECA5A52}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Correo electrónico"/>
@@ -775,11 +715,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -788,10 +728,12 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="18" width="18.85546875" customWidth="1"/>
+    <col min="7" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="19" customWidth="1"/>
+    <col min="14" max="17" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,1380 +767,1377 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>45854.567540729171</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>4</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>19</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>45854.574504201388</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>5</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>45854.58623627315</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
         <v>11</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>27</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>45855.468112557872</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>7</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>45855.472267025463</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>13</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>45855.489205023143</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="6">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>5</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>45</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>45855.496055740739</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="4">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
         <v>8</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>7</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>45855.50176697917</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6">
         <v>5</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>45855.55868736111</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4">
         <v>23</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>35</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>45855.608529178236</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="6">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>44</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>45855.629866238422</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4">
         <v>17</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>45855.639415347221</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6">
         <v>2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>58</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>45855.65866587963</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>48</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>45855.665960787039</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>4</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>30</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>45855.67533017361</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4">
         <v>10</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>59</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>45855.684962106483</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>11</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>6</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>45855.765643888888</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4">
         <v>11</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>24</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>45855.77244533565</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>7</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>44</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>45859.71465094907</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>25</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="I20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="9">
         <v>15</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="9">
         <v>23</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>45859.716701817131</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="15">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="11">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="H21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="11">
         <v>19</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>53</v>
       </c>
-      <c r="L21" s="16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="L21" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>45859.717796504628</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="12">
-        <v>22</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="9">
         <v>16</v>
       </c>
-      <c r="K22" s="12">
-        <v>22</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="K22" s="9">
+        <v>22</v>
+      </c>
+      <c r="L22" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>45859.918502592591</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="15">
-        <v>21</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="11">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="11">
         <v>13</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="11">
         <v>12</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>45859.919591412036</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>23</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="9">
         <v>15</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <v>51</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>45859.920733032406</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15">
-        <v>20</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="11">
+        <v>20</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="12">
         <v>6</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="11">
         <v>31</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>45859.921463599538</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="12">
-        <v>22</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="9">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="9">
         <v>11</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="9">
         <v>10</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>45859.922761435184</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="11">
         <v>19</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="D27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="H27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="12">
         <v>8</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="12">
         <v>5</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>45859.924035462958</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="12">
-        <v>21</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="9">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9">
         <v>12</v>
       </c>
-      <c r="K28" s="12">
-        <v>14</v>
-      </c>
-      <c r="L28" s="13">
+      <c r="K28" s="9">
+        <v>14</v>
+      </c>
+      <c r="L28" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>45859.924904930551</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="I29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="11">
         <v>16</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="11">
         <v>23</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>45859.925781064812</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="12">
-        <v>22</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="9">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="I30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="9">
         <v>15</v>
       </c>
-      <c r="K30" s="12">
-        <v>21</v>
-      </c>
-      <c r="L30" s="13">
+      <c r="K30" s="9">
+        <v>21</v>
+      </c>
+      <c r="L30" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>45860.383621145833</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <v>19</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="11">
         <v>10</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <v>3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>45860.384262951389</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>19</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="9">
         <v>15</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="9">
         <v>45</v>
       </c>
-      <c r="L32" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="L32" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>45860.386101446755</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>24</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="15">
+      <c r="H33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="11">
         <v>17</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="11">
         <v>45</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>45860.386708703707</v>
-      </c>
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="1:12" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>45860.387340277783</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="17">
         <v>23</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="17">
+        <v>16</v>
+      </c>
+      <c r="K34" s="18">
+        <v>8</v>
+      </c>
+      <c r="L34" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>45860.388183796298</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9">
+        <v>21</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="12">
-        <v>19</v>
-      </c>
-      <c r="K34" s="12">
-        <v>49</v>
-      </c>
-      <c r="L34" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>45860.387340277783</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="15">
-        <v>23</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9">
+        <v>15</v>
+      </c>
+      <c r="K35" s="9">
+        <v>14</v>
+      </c>
+      <c r="L35" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>45860.389233240741</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="11">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="15">
+      <c r="H36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="12">
+        <v>5</v>
+      </c>
+      <c r="K36" s="11">
+        <v>14</v>
+      </c>
+      <c r="L36" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>45861.513561967593</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="14">
+        <v>24</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="15">
         <v>16</v>
       </c>
-      <c r="K35" s="17">
-        <v>8</v>
-      </c>
-      <c r="L35" s="16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
-        <v>45860.388183796298</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="12">
-        <v>21</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="12">
-        <v>15</v>
-      </c>
-      <c r="K36" s="12">
-        <v>14</v>
-      </c>
-      <c r="L36" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
-        <v>45860.389233240741</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="19">
-        <v>20</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="20">
-        <v>5</v>
-      </c>
-      <c r="K37" s="19">
-        <v>14</v>
-      </c>
-      <c r="L37" s="21">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J38" s="22"/>
+      <c r="K37" s="14">
+        <v>38</v>
+      </c>
+      <c r="L37" s="14">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
